--- a/数据更新记录-更新到190502.xlsx
+++ b/数据更新记录-更新到190502.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9765"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="数据更新记录" sheetId="1" r:id="rId1"/>
@@ -1543,10 +1543,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>夜芙海棠</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>2019.05.02</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1560,6 +1556,10 @@
   </si>
   <si>
     <t>notice,wardrobe,index</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜芙海棠</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2103,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I76" sqref="I76"/>
     </sheetView>
@@ -3109,16 +3109,16 @@
     </row>
     <row r="78" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B78" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="C78" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="D78" s="27" t="s">
         <v>469</v>
-      </c>
-      <c r="D78" s="27" t="s">
-        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -4098,9 +4098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4169,7 +4169,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D5" s="29" t="s">
         <v>465</v>
@@ -4269,13 +4269,13 @@
       <c r="A13" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="28">
         <v>1</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="29" t="s">
         <v>324</v>
       </c>
     </row>
